--- a/results/mp/tinybert/corona/confidence/168/topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,42 +40,33 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -85,172 +76,202 @@
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>i</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>'</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>corona</t>
@@ -611,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,31 +769,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>42</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4">
-        <v>0.96875</v>
-      </c>
-      <c r="L4">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>31</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7532467532467533</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5714285714285714</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.2887596899224806</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4849785407725322</v>
+        <v>0.28</v>
       </c>
       <c r="C9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4285714285714285</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3793103448275862</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,31 +1119,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>150</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L11">
+        <v>64</v>
+      </c>
+      <c r="M11">
+        <v>64</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L11">
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <v>43</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.313953488372093</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8392857142857143</v>
+        <v>0.7734375</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.275</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>58</v>
+        <v>325</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,137 +1251,89 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2608695652173913</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
+        <v>352</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L14">
+        <v>38</v>
+      </c>
+      <c r="M14">
+        <v>38</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7413793103448276</v>
+      </c>
+      <c r="L15">
+        <v>43</v>
+      </c>
+      <c r="M15">
+        <v>43</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L14">
-        <v>23</v>
-      </c>
-      <c r="M14">
-        <v>23</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>85</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>105</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K16">
-        <v>0.7435897435897436</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,482 +1348,434 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1075268817204301</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7125</v>
+      </c>
+      <c r="L18">
+        <v>114</v>
+      </c>
+      <c r="M18">
+        <v>114</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L19">
+        <v>73</v>
+      </c>
+      <c r="M19">
+        <v>73</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.625</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.62</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L24">
+        <v>57</v>
+      </c>
+      <c r="M24">
+        <v>57</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.5587467362924282</v>
+      </c>
+      <c r="L25">
+        <v>214</v>
+      </c>
+      <c r="M25">
+        <v>214</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.5186440677966102</v>
+      </c>
+      <c r="L26">
+        <v>153</v>
+      </c>
+      <c r="M26">
+        <v>153</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.5117647058823529</v>
+      </c>
+      <c r="L27">
+        <v>174</v>
+      </c>
+      <c r="M27">
+        <v>174</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>166</v>
       </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.4560669456066946</v>
+      </c>
+      <c r="L29">
+        <v>109</v>
+      </c>
+      <c r="M29">
+        <v>109</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L30">
         <v>39</v>
       </c>
-      <c r="K17">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L17">
-        <v>20</v>
-      </c>
-      <c r="M17">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.009721322099805573</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>36</v>
-      </c>
-      <c r="E18">
-        <v>0.58</v>
-      </c>
-      <c r="F18">
-        <v>0.42</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1528</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L18">
-        <v>19</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.726027397260274</v>
-      </c>
-      <c r="L19">
-        <v>53</v>
-      </c>
-      <c r="M19">
-        <v>53</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L20">
-        <v>42</v>
-      </c>
-      <c r="M20">
-        <v>42</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.68</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
+      <c r="M30">
+        <v>39</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.6244131455399061</v>
-      </c>
-      <c r="L23">
-        <v>133</v>
-      </c>
-      <c r="M23">
-        <v>133</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.6</v>
-      </c>
-      <c r="L24">
-        <v>15</v>
-      </c>
-      <c r="M24">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>18</v>
-      </c>
-      <c r="M25">
-        <v>18</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L27">
-        <v>19</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="L28">
-        <v>77</v>
-      </c>
-      <c r="M28">
-        <v>77</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29">
-        <v>0.5193798449612403</v>
-      </c>
-      <c r="L29">
-        <v>67</v>
-      </c>
-      <c r="M29">
-        <v>67</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
-      <c r="L30">
-        <v>46</v>
-      </c>
-      <c r="M30">
-        <v>46</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31">
-        <v>0.5</v>
-      </c>
-      <c r="L31">
-        <v>12</v>
-      </c>
-      <c r="M31">
-        <v>12</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32">
-        <v>0.4324324324324325</v>
-      </c>
-      <c r="L32">
-        <v>16</v>
-      </c>
-      <c r="M32">
-        <v>16</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.40625</v>
+        <v>0.3125</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1862,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1888,47 +1813,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.3947368421052632</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3928571428571428</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1940,73 +1865,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.1149425287356322</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>77</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.07518796992481203</v>
+        <v>0.07591093117408906</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>123</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.06565656565656566</v>
+        <v>0.07451923076923077</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2018,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>185</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.05853658536585366</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2044,47 +1969,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41">
+        <v>0.07046979865771812</v>
+      </c>
+      <c r="L41">
         <v>63</v>
       </c>
-      <c r="K41">
-        <v>0.04975124378109453</v>
-      </c>
-      <c r="L41">
-        <v>20</v>
-      </c>
       <c r="M41">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>382</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.04784688995215311</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2096,203 +2021,203 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>199</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.04225352112676056</v>
+        <v>0.05860805860805861</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>408</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.04072398190045249</v>
+        <v>0.04400749063670412</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="N44">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>424</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.03728070175438596</v>
+        <v>0.04327666151468315</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>439</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.03571428571428571</v>
+        <v>0.04</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>270</v>
+        <v>864</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.03492063492063492</v>
+        <v>0.03986461075592328</v>
       </c>
       <c r="L47">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="M47">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>304</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.02922077922077922</v>
+        <v>0.03901825047199497</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N48">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>897</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.02589285714285714</v>
+        <v>0.03166332665330662</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="N49">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1091</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.02402957486136784</v>
+        <v>0.02968036529680365</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N50">
         <v>0.93</v>
@@ -2304,215 +2229,475 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>528</v>
+        <v>850</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.02400960384153662</v>
+        <v>0.02957906712172924</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>813</v>
+        <v>853</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.02308499475341028</v>
+        <v>0.02904929577464789</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>931</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.01779173207744636</v>
+        <v>0.02886836027713626</v>
       </c>
       <c r="L53">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N53">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1877</v>
+        <v>841</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>0.01551724137931034</v>
+        <v>0.02872384078785392</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N54">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="O54">
-        <v>0.18</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1713</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K55">
-        <v>0.01460221550855992</v>
+        <v>0.02775621118012422</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="N55">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O55">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1957</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="K56">
-        <v>0.01355713363460297</v>
+        <v>0.02603440260344026</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N56">
-        <v>0.58</v>
+        <v>0.89</v>
       </c>
       <c r="O56">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1528</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K57">
-        <v>0.011727078891258</v>
+        <v>0.02571638501102131</v>
       </c>
       <c r="L57">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M57">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N57">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O57">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>927</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58">
+        <v>0.02560763888888889</v>
+      </c>
+      <c r="L58">
+        <v>59</v>
+      </c>
+      <c r="M58">
+        <v>64</v>
+      </c>
+      <c r="N58">
+        <v>0.92</v>
+      </c>
+      <c r="O58">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59">
+        <v>0.0249609984399376</v>
+      </c>
+      <c r="L59">
+        <v>32</v>
+      </c>
+      <c r="M59">
+        <v>39</v>
+      </c>
+      <c r="N59">
+        <v>0.82</v>
+      </c>
+      <c r="O59">
+        <v>0.18</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60">
+        <v>0.02467532467532468</v>
+      </c>
+      <c r="L60">
+        <v>19</v>
+      </c>
+      <c r="M60">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K58">
-        <v>0.01133501259445844</v>
-      </c>
-      <c r="L58">
-        <v>18</v>
-      </c>
-      <c r="M58">
-        <v>27</v>
-      </c>
-      <c r="N58">
-        <v>0.67</v>
-      </c>
-      <c r="O58">
-        <v>0.33</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1570</v>
+      <c r="K61">
+        <v>0.02316423442205235</v>
+      </c>
+      <c r="L61">
+        <v>100</v>
+      </c>
+      <c r="M61">
+        <v>111</v>
+      </c>
+      <c r="N61">
+        <v>0.9</v>
+      </c>
+      <c r="O61">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K62">
+        <v>0.0227979274611399</v>
+      </c>
+      <c r="L62">
+        <v>22</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62">
+        <v>0.88</v>
+      </c>
+      <c r="O62">
+        <v>0.12</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63">
+        <v>0.02230843840931135</v>
+      </c>
+      <c r="L63">
+        <v>69</v>
+      </c>
+      <c r="M63">
+        <v>83</v>
+      </c>
+      <c r="N63">
+        <v>0.83</v>
+      </c>
+      <c r="O63">
+        <v>0.17</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K64">
+        <v>0.02021174205967276</v>
+      </c>
+      <c r="L64">
+        <v>21</v>
+      </c>
+      <c r="M64">
+        <v>22</v>
+      </c>
+      <c r="N64">
+        <v>0.95</v>
+      </c>
+      <c r="O64">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K65">
+        <v>0.01988155668358714</v>
+      </c>
+      <c r="L65">
+        <v>47</v>
+      </c>
+      <c r="M65">
+        <v>62</v>
+      </c>
+      <c r="N65">
+        <v>0.76</v>
+      </c>
+      <c r="O65">
+        <v>0.24</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="L66">
+        <v>19</v>
+      </c>
+      <c r="M66">
+        <v>20</v>
+      </c>
+      <c r="N66">
+        <v>0.95</v>
+      </c>
+      <c r="O66">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67">
+        <v>0.0150564617314931</v>
+      </c>
+      <c r="L67">
+        <v>36</v>
+      </c>
+      <c r="M67">
+        <v>39</v>
+      </c>
+      <c r="N67">
+        <v>0.92</v>
+      </c>
+      <c r="O67">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K68">
+        <v>0.01225259189443921</v>
+      </c>
+      <c r="L68">
+        <v>39</v>
+      </c>
+      <c r="M68">
+        <v>57</v>
+      </c>
+      <c r="N68">
+        <v>0.68</v>
+      </c>
+      <c r="O68">
+        <v>0.32</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>3144</v>
       </c>
     </row>
   </sheetData>
